--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H2">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I2">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J2">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N2">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O2">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P2">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q2">
-        <v>12.16215368439934</v>
+        <v>8.211322325910444</v>
       </c>
       <c r="R2">
-        <v>109.459383159594</v>
+        <v>73.901900933194</v>
       </c>
       <c r="S2">
-        <v>0.0004411595606056658</v>
+        <v>0.0002157391512887303</v>
       </c>
       <c r="T2">
-        <v>0.0004411595606056657</v>
+        <v>0.0002157391512887302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H3">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I3">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J3">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P3">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q3">
-        <v>24.814630823632</v>
+        <v>10.31431626645067</v>
       </c>
       <c r="R3">
-        <v>223.331677412688</v>
+        <v>92.828846398056</v>
       </c>
       <c r="S3">
-        <v>0.0009001046948442639</v>
+        <v>0.0002709918998583324</v>
       </c>
       <c r="T3">
-        <v>0.0009001046948442638</v>
+        <v>0.0002709918998583323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H4">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I4">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J4">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N4">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P4">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q4">
-        <v>22.83107570081867</v>
+        <v>13.43973387420223</v>
       </c>
       <c r="R4">
-        <v>205.479681307368</v>
+        <v>120.95760486782</v>
       </c>
       <c r="S4">
-        <v>0.0008281549128299229</v>
+        <v>0.0003531071689169506</v>
       </c>
       <c r="T4">
-        <v>0.0008281549128299228</v>
+        <v>0.0003531071689169505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H5">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I5">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J5">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N5">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P5">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q5">
-        <v>7.762467659492001</v>
+        <v>2.300769594416555</v>
       </c>
       <c r="R5">
-        <v>69.862208935428</v>
+        <v>20.706926349749</v>
       </c>
       <c r="S5">
-        <v>0.0002815691127361635</v>
+        <v>6.044898250359554E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002815691127361634</v>
+        <v>6.044898250359552E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H6">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I6">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J6">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N6">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P6">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q6">
-        <v>56.19229641457467</v>
+        <v>27.30610440476567</v>
       </c>
       <c r="R6">
-        <v>505.730667731172</v>
+        <v>245.754939642891</v>
       </c>
       <c r="S6">
-        <v>0.002038271299554081</v>
+        <v>0.0007174235227250601</v>
       </c>
       <c r="T6">
-        <v>0.002038271299554081</v>
+        <v>0.0007174235227250599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H7">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I7">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J7">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N7">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P7">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q7">
-        <v>24.97170879866</v>
+        <v>7.98931886523689</v>
       </c>
       <c r="R7">
-        <v>224.74537918794</v>
+        <v>71.903869787132</v>
       </c>
       <c r="S7">
-        <v>0.0009058024069635467</v>
+        <v>0.0002099063710996316</v>
       </c>
       <c r="T7">
-        <v>0.0009058024069635465</v>
+        <v>0.0002099063710996316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H8">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N8">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O8">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P8">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q8">
-        <v>75.03321909349901</v>
+        <v>141.4312362912002</v>
       </c>
       <c r="R8">
-        <v>675.298971841491</v>
+        <v>1272.881126620802</v>
       </c>
       <c r="S8">
-        <v>0.002721690814397196</v>
+        <v>0.003715875917682516</v>
       </c>
       <c r="T8">
-        <v>0.002721690814397194</v>
+        <v>0.003715875917682515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H9">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P9">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q9">
-        <v>153.091440844248</v>
+        <v>177.6530555206053</v>
       </c>
       <c r="R9">
-        <v>1377.822967598232</v>
+        <v>1598.877499685448</v>
       </c>
       <c r="S9">
-        <v>0.005553107987935468</v>
+        <v>0.004667545360011858</v>
       </c>
       <c r="T9">
-        <v>0.005553107987935467</v>
+        <v>0.004667545360011857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H10">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N10">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P10">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q10">
-        <v>140.854091278028</v>
+        <v>231.4850278444511</v>
       </c>
       <c r="R10">
-        <v>1267.686821502252</v>
+        <v>2083.36525060006</v>
       </c>
       <c r="S10">
-        <v>0.005109220836226763</v>
+        <v>0.00608189295963032</v>
       </c>
       <c r="T10">
-        <v>0.005109220836226762</v>
+        <v>0.006081892959630317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H11">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N11">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P11">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q11">
-        <v>47.88978594703801</v>
+        <v>39.62829313529078</v>
       </c>
       <c r="R11">
-        <v>431.008073523342</v>
+        <v>356.654638217617</v>
       </c>
       <c r="S11">
-        <v>0.001737113135890956</v>
+        <v>0.001041169008924604</v>
       </c>
       <c r="T11">
-        <v>0.001737113135890956</v>
+        <v>0.001041169008924603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H12">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I12">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J12">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N12">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P12">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q12">
-        <v>346.672883574062</v>
+        <v>470.3184153515003</v>
       </c>
       <c r="R12">
-        <v>3120.055952166558</v>
+        <v>4232.865738163503</v>
       </c>
       <c r="S12">
-        <v>0.01257491567366143</v>
+        <v>0.01235685212882482</v>
       </c>
       <c r="T12">
-        <v>0.01257491567366143</v>
+        <v>0.01235685212882481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H13">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I13">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J13">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N13">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P13">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q13">
-        <v>154.06051806699</v>
+        <v>137.6074643507285</v>
       </c>
       <c r="R13">
-        <v>1386.54466260291</v>
+        <v>1238.467179156556</v>
       </c>
       <c r="S13">
-        <v>0.00558825946627324</v>
+        <v>0.00361541252330863</v>
       </c>
       <c r="T13">
-        <v>0.005588259466273239</v>
+        <v>0.003615412523308628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H14">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I14">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J14">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N14">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O14">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P14">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q14">
-        <v>2051.897665219516</v>
+        <v>4252.76597769221</v>
       </c>
       <c r="R14">
-        <v>18467.07898697564</v>
+        <v>38274.89379922989</v>
       </c>
       <c r="S14">
-        <v>0.07442878094503703</v>
+        <v>0.1117345156165425</v>
       </c>
       <c r="T14">
-        <v>0.07442878094503702</v>
+        <v>0.1117345156165425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H15">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I15">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J15">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P15">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q15">
-        <v>4186.518635725448</v>
+        <v>5341.937821964039</v>
       </c>
       <c r="R15">
-        <v>37678.66772152903</v>
+        <v>48077.44039767636</v>
       </c>
       <c r="S15">
-        <v>0.1518581963137959</v>
+        <v>0.140350735996703</v>
       </c>
       <c r="T15">
-        <v>0.1518581963137959</v>
+        <v>0.140350735996703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H16">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I16">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J16">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N16">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P16">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q16">
-        <v>3851.869672149562</v>
+        <v>6960.638092246301</v>
       </c>
       <c r="R16">
-        <v>34666.82704934605</v>
+        <v>62645.74283021671</v>
       </c>
       <c r="S16">
-        <v>0.1397194260302356</v>
+        <v>0.182879455323625</v>
       </c>
       <c r="T16">
-        <v>0.1397194260302356</v>
+        <v>0.182879455323625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H17">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I17">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J17">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N17">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P17">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q17">
-        <v>1309.619141491738</v>
+        <v>1191.602797367785</v>
       </c>
       <c r="R17">
-        <v>11786.57227342564</v>
+        <v>10724.42517631007</v>
       </c>
       <c r="S17">
-        <v>0.04750400463713582</v>
+        <v>0.03130742722962091</v>
       </c>
       <c r="T17">
-        <v>0.0475040046371358</v>
+        <v>0.03130742722962091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H18">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I18">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J18">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N18">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P18">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q18">
-        <v>9480.298046577696</v>
+        <v>14142.23765512981</v>
       </c>
       <c r="R18">
-        <v>85322.68241919926</v>
+        <v>127280.1388961683</v>
       </c>
       <c r="S18">
-        <v>0.3438802229578572</v>
+        <v>0.3715643142413047</v>
       </c>
       <c r="T18">
-        <v>0.3438802229578571</v>
+        <v>0.3715643142413046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H19">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I19">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J19">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N19">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P19">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q19">
-        <v>4213.01952846049</v>
+        <v>4137.787083062381</v>
       </c>
       <c r="R19">
-        <v>37917.17575614441</v>
+        <v>37240.08374756142</v>
       </c>
       <c r="S19">
-        <v>0.1528194670309753</v>
+        <v>0.1087136319928071</v>
       </c>
       <c r="T19">
-        <v>0.1528194670309753</v>
+        <v>0.1087136319928071</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H20">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I20">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J20">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.88540433333334</v>
+        <v>42.04602466666667</v>
       </c>
       <c r="N20">
-        <v>77.65621300000001</v>
+        <v>126.138074</v>
       </c>
       <c r="O20">
-        <v>0.08177099014340375</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="P20">
-        <v>0.08177099014340374</v>
+        <v>0.1180439555498783</v>
       </c>
       <c r="Q20">
-        <v>115.2190927069954</v>
+        <v>90.50321315916511</v>
       </c>
       <c r="R20">
-        <v>1036.971834362958</v>
+        <v>814.528918432486</v>
       </c>
       <c r="S20">
-        <v>0.004179358823363853</v>
+        <v>0.002377824864364517</v>
       </c>
       <c r="T20">
-        <v>0.004179358823363851</v>
+        <v>0.002377824864364516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H21">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I21">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J21">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="P21">
-        <v>0.1668386196347945</v>
+        <v>0.1482760805823429</v>
       </c>
       <c r="Q21">
-        <v>235.083302147824</v>
+        <v>113.6819048873627</v>
       </c>
       <c r="R21">
-        <v>2115.749719330416</v>
+        <v>1023.137143986264</v>
       </c>
       <c r="S21">
-        <v>0.008527210638218886</v>
+        <v>0.002986807325769721</v>
       </c>
       <c r="T21">
-        <v>0.008527210638218884</v>
+        <v>0.00298680732576972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H22">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I22">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J22">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.59267866666667</v>
+        <v>68.81807333333334</v>
       </c>
       <c r="N22">
-        <v>145.778036</v>
+        <v>206.45422</v>
       </c>
       <c r="O22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="P22">
-        <v>0.1535023906571488</v>
+        <v>0.1932063174578422</v>
       </c>
       <c r="Q22">
-        <v>216.2919410521307</v>
+        <v>148.1295035491756</v>
       </c>
       <c r="R22">
-        <v>1946.627469469176</v>
+        <v>1333.16553194258</v>
       </c>
       <c r="S22">
-        <v>0.007845588877856474</v>
+        <v>0.003891862005669931</v>
       </c>
       <c r="T22">
-        <v>0.007845588877856472</v>
+        <v>0.00389186200566993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H23">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I23">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J23">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.521302</v>
+        <v>11.78107633333333</v>
       </c>
       <c r="N23">
-        <v>49.563906</v>
+        <v>35.343229</v>
       </c>
       <c r="O23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="P23">
-        <v>0.05219015340079215</v>
+        <v>0.03307529931894448</v>
       </c>
       <c r="Q23">
-        <v>73.53833080084402</v>
+        <v>25.35852725894789</v>
       </c>
       <c r="R23">
-        <v>661.8449772075961</v>
+        <v>228.226745330531</v>
       </c>
       <c r="S23">
-        <v>0.002667466515029217</v>
+        <v>0.000666254097895367</v>
       </c>
       <c r="T23">
-        <v>0.002667466515029217</v>
+        <v>0.0006662540978953669</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H24">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I24">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J24">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>119.5972646666667</v>
+        <v>139.820737</v>
       </c>
       <c r="N24">
-        <v>358.791794</v>
+        <v>419.462211</v>
       </c>
       <c r="O24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="P24">
-        <v>0.3778031289100866</v>
+        <v>0.3925458588351179</v>
       </c>
       <c r="Q24">
-        <v>532.3420158976228</v>
+        <v>300.9612933708477</v>
       </c>
       <c r="R24">
-        <v>4791.078143078605</v>
+        <v>2708.651640337629</v>
       </c>
       <c r="S24">
-        <v>0.01930971897901389</v>
+        <v>0.007907268942263342</v>
       </c>
       <c r="T24">
-        <v>0.01930971897901389</v>
+        <v>0.007907268942263341</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H25">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I25">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J25">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.14871</v>
+        <v>40.90925733333334</v>
       </c>
       <c r="N25">
-        <v>159.44613</v>
+        <v>122.727772</v>
       </c>
       <c r="O25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="P25">
-        <v>0.1678947172537743</v>
+        <v>0.1148524882558742</v>
       </c>
       <c r="Q25">
-        <v>236.5713923526201</v>
+        <v>88.05634458843423</v>
       </c>
       <c r="R25">
-        <v>2129.14253117358</v>
+        <v>792.507101295908</v>
       </c>
       <c r="S25">
-        <v>0.008581188349562188</v>
+        <v>0.002313537368658882</v>
       </c>
       <c r="T25">
-        <v>0.008581188349562188</v>
+        <v>0.002313537368658881</v>
       </c>
     </row>
   </sheetData>
